--- a/PythonResources/Data/Consumption/Sympheny/post_1045_hea.xlsx
+++ b/PythonResources/Data/Consumption/Sympheny/post_1045_hea.xlsx
@@ -583,7 +583,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>24.35417400565393</v>
+        <v>24.35417400565392</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -663,7 +663,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>21.56138284983451</v>
+        <v>21.5613828498345</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -783,7 +783,7 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>45.35977693777106</v>
+        <v>45.35977693777105</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -863,7 +863,7 @@
         <v>65</v>
       </c>
       <c r="B65">
-        <v>7.267253238581514</v>
+        <v>7.267253238581513</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -983,7 +983,7 @@
         <v>80</v>
       </c>
       <c r="B80">
-        <v>16.4307933257174</v>
+        <v>16.43079332571739</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1055,7 +1055,7 @@
         <v>89</v>
       </c>
       <c r="B89">
-        <v>2.374921676764918</v>
+        <v>2.374921676764917</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1167,7 +1167,7 @@
         <v>103</v>
       </c>
       <c r="B103">
-        <v>36.76927865252971</v>
+        <v>36.7692786525297</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1399,7 +1399,7 @@
         <v>132</v>
       </c>
       <c r="B132">
-        <v>17.02270890250172</v>
+        <v>17.02270890250171</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -1711,7 +1711,7 @@
         <v>171</v>
       </c>
       <c r="B171">
-        <v>19.47972856932684</v>
+        <v>19.47972856932683</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -1735,7 +1735,7 @@
         <v>174</v>
       </c>
       <c r="B174">
-        <v>19.27144298215022</v>
+        <v>19.27144298215021</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -1815,7 +1815,7 @@
         <v>184</v>
       </c>
       <c r="B184">
-        <v>8.263548234510758</v>
+        <v>8.263548234510756</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -1847,7 +1847,7 @@
         <v>188</v>
       </c>
       <c r="B188">
-        <v>6.872252092673752</v>
+        <v>6.872252092673751</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -1903,7 +1903,7 @@
         <v>195</v>
       </c>
       <c r="B195">
-        <v>19.3975514500862</v>
+        <v>19.39755145008619</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -1951,7 +1951,7 @@
         <v>201</v>
       </c>
       <c r="B201">
-        <v>24.14978626329151</v>
+        <v>24.1497862632915</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -2231,7 +2231,7 @@
         <v>236</v>
       </c>
       <c r="B236">
-        <v>0.8501375382384438</v>
+        <v>0.8501375382384437</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -2303,7 +2303,7 @@
         <v>245</v>
       </c>
       <c r="B245">
-        <v>14.84226037486131</v>
+        <v>14.8422603748613</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -2359,7 +2359,7 @@
         <v>252</v>
       </c>
       <c r="B252">
-        <v>9.769376538256616</v>
+        <v>9.769376538256614</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -2367,7 +2367,7 @@
         <v>253</v>
       </c>
       <c r="B253">
-        <v>5.988760139525261</v>
+        <v>5.98876013952526</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -2463,7 +2463,7 @@
         <v>265</v>
       </c>
       <c r="B265">
-        <v>11.69848734314106</v>
+        <v>11.69848734314105</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -2879,7 +2879,7 @@
         <v>317</v>
       </c>
       <c r="B317">
-        <v>4.285314034410058</v>
+        <v>4.285314034410057</v>
       </c>
     </row>
     <row r="318" spans="1:2">
@@ -2911,7 +2911,7 @@
         <v>321</v>
       </c>
       <c r="B321">
-        <v>9.738955764443569</v>
+        <v>9.738955764443563</v>
       </c>
     </row>
     <row r="322" spans="1:2">
@@ -2935,7 +2935,7 @@
         <v>324</v>
       </c>
       <c r="B324">
-        <v>6.464092057130097</v>
+        <v>6.464092057130096</v>
       </c>
     </row>
     <row r="325" spans="1:2">
@@ -2943,7 +2943,7 @@
         <v>325</v>
       </c>
       <c r="B325">
-        <v>4.155424950075349</v>
+        <v>4.155424950075348</v>
       </c>
     </row>
     <row r="326" spans="1:2">
@@ -2983,7 +2983,7 @@
         <v>330</v>
       </c>
       <c r="B330">
-        <v>16.38211422619575</v>
+        <v>16.38211422619574</v>
       </c>
     </row>
     <row r="331" spans="1:2">
@@ -3231,7 +3231,7 @@
         <v>361</v>
       </c>
       <c r="B361">
-        <v>65.88735169872767</v>
+        <v>65.88735169872766</v>
       </c>
     </row>
     <row r="362" spans="1:2">
@@ -3279,7 +3279,7 @@
         <v>367</v>
       </c>
       <c r="B367">
-        <v>60.06725394195201</v>
+        <v>60.067253941952</v>
       </c>
     </row>
     <row r="368" spans="1:2">
@@ -3295,7 +3295,7 @@
         <v>369</v>
       </c>
       <c r="B369">
-        <v>35.40854982002508</v>
+        <v>35.40854982002507</v>
       </c>
     </row>
     <row r="370" spans="1:2">
@@ -3343,7 +3343,7 @@
         <v>375</v>
       </c>
       <c r="B375">
-        <v>15.1218794528481</v>
+        <v>15.12187945284809</v>
       </c>
     </row>
     <row r="376" spans="1:2">
@@ -3471,7 +3471,7 @@
         <v>391</v>
       </c>
       <c r="B391">
-        <v>58.05766582985117</v>
+        <v>58.05766582985116</v>
       </c>
     </row>
     <row r="392" spans="1:2">
@@ -3479,7 +3479,7 @@
         <v>392</v>
       </c>
       <c r="B392">
-        <v>42.58556648580277</v>
+        <v>42.58556648580276</v>
       </c>
     </row>
     <row r="393" spans="1:2">
@@ -3647,7 +3647,7 @@
         <v>413</v>
       </c>
       <c r="B413">
-        <v>34.71045460593376</v>
+        <v>34.71045460593375</v>
       </c>
     </row>
     <row r="414" spans="1:2">
@@ -3703,7 +3703,7 @@
         <v>420</v>
       </c>
       <c r="B420">
-        <v>32.52209316024949</v>
+        <v>32.52209316024948</v>
       </c>
     </row>
     <row r="421" spans="1:2">
@@ -3727,7 +3727,7 @@
         <v>423</v>
       </c>
       <c r="B423">
-        <v>22.69243190934024</v>
+        <v>22.69243190934023</v>
       </c>
     </row>
     <row r="424" spans="1:2">
@@ -3855,7 +3855,7 @@
         <v>439</v>
       </c>
       <c r="B439">
-        <v>62.46457503820182</v>
+        <v>62.46457503820181</v>
       </c>
     </row>
     <row r="440" spans="1:2">
@@ -3943,7 +3943,7 @@
         <v>450</v>
       </c>
       <c r="B450">
-        <v>6.515496717311296</v>
+        <v>6.515496717311295</v>
       </c>
     </row>
     <row r="451" spans="1:2">
@@ -3959,7 +3959,7 @@
         <v>452</v>
       </c>
       <c r="B452">
-        <v>26.5512689682903</v>
+        <v>26.55126896829029</v>
       </c>
     </row>
     <row r="453" spans="1:2">
@@ -3983,7 +3983,7 @@
         <v>455</v>
       </c>
       <c r="B455">
-        <v>28.32387983852959</v>
+        <v>28.32387983852958</v>
       </c>
     </row>
     <row r="456" spans="1:2">
@@ -4191,7 +4191,7 @@
         <v>481</v>
       </c>
       <c r="B481">
-        <v>28.43492445507837</v>
+        <v>28.43492445507836</v>
       </c>
     </row>
     <row r="482" spans="1:2">
@@ -4303,7 +4303,7 @@
         <v>495</v>
       </c>
       <c r="B495">
-        <v>20.96354723806923</v>
+        <v>20.96354723806922</v>
       </c>
     </row>
     <row r="496" spans="1:2">
@@ -4351,7 +4351,7 @@
         <v>501</v>
       </c>
       <c r="B501">
-        <v>34.29019073649339</v>
+        <v>34.29019073649338</v>
       </c>
     </row>
     <row r="502" spans="1:2">
@@ -4399,7 +4399,7 @@
         <v>507</v>
       </c>
       <c r="B507">
-        <v>36.70275152675358</v>
+        <v>36.70275152675357</v>
       </c>
     </row>
     <row r="508" spans="1:2">
@@ -4407,7 +4407,7 @@
         <v>508</v>
       </c>
       <c r="B508">
-        <v>36.19075642221221</v>
+        <v>36.1907564222122</v>
       </c>
     </row>
     <row r="509" spans="1:2">
@@ -4439,7 +4439,7 @@
         <v>512</v>
       </c>
       <c r="B512">
-        <v>47.91506332385933</v>
+        <v>47.91506332385932</v>
       </c>
     </row>
     <row r="513" spans="1:2">
@@ -4479,7 +4479,7 @@
         <v>517</v>
       </c>
       <c r="B517">
-        <v>35.72213583139272</v>
+        <v>35.72213583139271</v>
       </c>
     </row>
     <row r="518" spans="1:2">
@@ -4511,7 +4511,7 @@
         <v>521</v>
       </c>
       <c r="B521">
-        <v>37.2431745220451</v>
+        <v>37.24317452204509</v>
       </c>
     </row>
     <row r="522" spans="1:2">
@@ -4551,7 +4551,7 @@
         <v>526</v>
       </c>
       <c r="B526">
-        <v>30.60042635974705</v>
+        <v>30.60042635974704</v>
       </c>
     </row>
     <row r="527" spans="1:2">
@@ -4671,7 +4671,7 @@
         <v>541</v>
       </c>
       <c r="B541">
-        <v>36.7768984995349</v>
+        <v>36.77689849953489</v>
       </c>
     </row>
     <row r="542" spans="1:2">
@@ -4679,7 +4679,7 @@
         <v>542</v>
       </c>
       <c r="B542">
-        <v>33.90304389442175</v>
+        <v>33.90304389442174</v>
       </c>
     </row>
     <row r="543" spans="1:2">
@@ -4783,7 +4783,7 @@
         <v>555</v>
       </c>
       <c r="B555">
-        <v>36.62889762501092</v>
+        <v>36.62889762501091</v>
       </c>
     </row>
     <row r="556" spans="1:2">
@@ -4839,7 +4839,7 @@
         <v>562</v>
       </c>
       <c r="B562">
-        <v>36.74612604047546</v>
+        <v>36.74612604047545</v>
       </c>
     </row>
     <row r="563" spans="1:2">
@@ -4855,7 +4855,7 @@
         <v>564</v>
       </c>
       <c r="B564">
-        <v>33.15395431960335</v>
+        <v>33.15395431960334</v>
       </c>
     </row>
     <row r="565" spans="1:2">
@@ -4871,7 +4871,7 @@
         <v>566</v>
       </c>
       <c r="B566">
-        <v>32.03793980438095</v>
+        <v>32.03793980438094</v>
       </c>
     </row>
     <row r="567" spans="1:2">
@@ -4919,7 +4919,7 @@
         <v>572</v>
       </c>
       <c r="B572">
-        <v>25.91193449745058</v>
+        <v>25.91193449745057</v>
       </c>
     </row>
     <row r="573" spans="1:2">
@@ -4951,7 +4951,7 @@
         <v>576</v>
       </c>
       <c r="B576">
-        <v>27.61359286922995</v>
+        <v>27.61359286922994</v>
       </c>
     </row>
     <row r="577" spans="1:2">
@@ -5183,7 +5183,7 @@
         <v>605</v>
       </c>
       <c r="B605">
-        <v>23.27447099212167</v>
+        <v>23.27447099212166</v>
       </c>
     </row>
     <row r="606" spans="1:2">
@@ -5215,7 +5215,7 @@
         <v>609</v>
       </c>
       <c r="B609">
-        <v>26.60932634104912</v>
+        <v>26.60932634104911</v>
       </c>
     </row>
     <row r="610" spans="1:2">
@@ -5399,7 +5399,7 @@
         <v>632</v>
       </c>
       <c r="B632">
-        <v>32.0405774437289</v>
+        <v>32.04057744372889</v>
       </c>
     </row>
     <row r="633" spans="1:2">
@@ -5471,7 +5471,7 @@
         <v>641</v>
       </c>
       <c r="B641">
-        <v>25.10575468430095</v>
+        <v>25.10575468430094</v>
       </c>
     </row>
     <row r="642" spans="1:2">
@@ -5583,7 +5583,7 @@
         <v>655</v>
       </c>
       <c r="B655">
-        <v>39.20997426250139</v>
+        <v>39.20997426250138</v>
       </c>
     </row>
     <row r="656" spans="1:2">
@@ -5615,7 +5615,7 @@
         <v>659</v>
       </c>
       <c r="B659">
-        <v>32.89165574000145</v>
+        <v>32.89165574000144</v>
       </c>
     </row>
     <row r="660" spans="1:2">
@@ -5671,7 +5671,7 @@
         <v>666</v>
       </c>
       <c r="B666">
-        <v>34.94491143686283</v>
+        <v>34.94491143686282</v>
       </c>
     </row>
     <row r="667" spans="1:2">
@@ -5743,7 +5743,7 @@
         <v>675</v>
       </c>
       <c r="B675">
-        <v>35.50790090213128</v>
+        <v>35.50790090213127</v>
       </c>
     </row>
     <row r="676" spans="1:2">
@@ -5751,7 +5751,7 @@
         <v>676</v>
       </c>
       <c r="B676">
-        <v>36.63153526435888</v>
+        <v>36.63153526435887</v>
       </c>
     </row>
     <row r="677" spans="1:2">
@@ -5767,7 +5767,7 @@
         <v>678</v>
       </c>
       <c r="B678">
-        <v>36.04803082638414</v>
+        <v>36.04803082638413</v>
       </c>
     </row>
     <row r="679" spans="1:2">
@@ -5783,7 +5783,7 @@
         <v>680</v>
       </c>
       <c r="B680">
-        <v>48.09354358640409</v>
+        <v>48.09354358640408</v>
       </c>
     </row>
     <row r="681" spans="1:2">
@@ -6167,7 +6167,7 @@
         <v>728</v>
       </c>
       <c r="B728">
-        <v>42.2183484743601</v>
+        <v>42.21834847436009</v>
       </c>
     </row>
     <row r="729" spans="1:2">
@@ -6279,7 +6279,7 @@
         <v>742</v>
       </c>
       <c r="B742">
-        <v>24.35015893242427</v>
+        <v>24.35015893242426</v>
       </c>
     </row>
     <row r="743" spans="1:2">
@@ -6319,7 +6319,7 @@
         <v>747</v>
       </c>
       <c r="B747">
-        <v>28.97678349845933</v>
+        <v>28.97678349845932</v>
       </c>
     </row>
     <row r="748" spans="1:2">
@@ -6495,7 +6495,7 @@
         <v>769</v>
       </c>
       <c r="B769">
-        <v>23.37259117586549</v>
+        <v>23.37259117586548</v>
       </c>
     </row>
     <row r="770" spans="1:2">
@@ -6655,7 +6655,7 @@
         <v>789</v>
       </c>
       <c r="B789">
-        <v>25.29358391297901</v>
+        <v>25.293583912979</v>
       </c>
     </row>
     <row r="790" spans="1:2">
@@ -6695,7 +6695,7 @@
         <v>794</v>
       </c>
       <c r="B794">
-        <v>30.64145630515964</v>
+        <v>30.64145630515963</v>
       </c>
     </row>
     <row r="795" spans="1:2">
@@ -6847,7 +6847,7 @@
         <v>813</v>
       </c>
       <c r="B813">
-        <v>35.35755545929801</v>
+        <v>35.357555459298</v>
       </c>
     </row>
     <row r="814" spans="1:2">
@@ -6951,7 +6951,7 @@
         <v>826</v>
       </c>
       <c r="B826">
-        <v>37.90023979072384</v>
+        <v>37.90023979072383</v>
       </c>
     </row>
     <row r="827" spans="1:2">
@@ -7023,7 +7023,7 @@
         <v>835</v>
       </c>
       <c r="B835">
-        <v>40.57509916058594</v>
+        <v>40.57509916058593</v>
       </c>
     </row>
     <row r="836" spans="1:2">
@@ -7087,7 +7087,7 @@
         <v>843</v>
       </c>
       <c r="B843">
-        <v>42.51903936002664</v>
+        <v>42.51903936002663</v>
       </c>
     </row>
     <row r="844" spans="1:2">
@@ -7183,7 +7183,7 @@
         <v>855</v>
       </c>
       <c r="B855">
-        <v>27.39381889733781</v>
+        <v>27.3938188973378</v>
       </c>
     </row>
     <row r="856" spans="1:2">
@@ -7207,7 +7207,7 @@
         <v>858</v>
       </c>
       <c r="B858">
-        <v>8.954697664985808</v>
+        <v>8.954697664985806</v>
       </c>
     </row>
     <row r="859" spans="1:2">
@@ -7295,7 +7295,7 @@
         <v>869</v>
       </c>
       <c r="B869">
-        <v>39.87202173883737</v>
+        <v>39.87202173883736</v>
       </c>
     </row>
     <row r="870" spans="1:2">
@@ -7319,7 +7319,7 @@
         <v>872</v>
       </c>
       <c r="B872">
-        <v>49.86896793861452</v>
+        <v>49.86896793861451</v>
       </c>
     </row>
     <row r="873" spans="1:2">
@@ -7343,7 +7343,7 @@
         <v>875</v>
       </c>
       <c r="B875">
-        <v>30.75721936543087</v>
+        <v>30.75721936543086</v>
       </c>
     </row>
     <row r="876" spans="1:2">
@@ -7663,7 +7663,7 @@
         <v>915</v>
       </c>
       <c r="B915">
-        <v>21.05680244257127</v>
+        <v>21.05680244257126</v>
       </c>
     </row>
     <row r="916" spans="1:2">
@@ -7871,7 +7871,7 @@
         <v>941</v>
       </c>
       <c r="B941">
-        <v>16.61009418717041</v>
+        <v>16.6100941871704</v>
       </c>
     </row>
     <row r="942" spans="1:2">
@@ -8095,7 +8095,7 @@
         <v>969</v>
       </c>
       <c r="B969">
-        <v>15.33672983129073</v>
+        <v>15.33672983129072</v>
       </c>
     </row>
     <row r="970" spans="1:2">
@@ -8703,7 +8703,7 @@
         <v>1045</v>
       </c>
       <c r="B1045">
-        <v>21.54863425965274</v>
+        <v>21.54863425965273</v>
       </c>
     </row>
     <row r="1046" spans="1:2">
@@ -8847,7 +8847,7 @@
         <v>1063</v>
       </c>
       <c r="B1063">
-        <v>47.65540238360538</v>
+        <v>47.65540238360537</v>
       </c>
     </row>
     <row r="1064" spans="1:2">
@@ -8863,7 +8863,7 @@
         <v>1065</v>
       </c>
       <c r="B1065">
-        <v>21.39995932173984</v>
+        <v>21.39995932173983</v>
       </c>
     </row>
     <row r="1066" spans="1:2">
@@ -9383,7 +9383,7 @@
         <v>1130</v>
       </c>
       <c r="B1130">
-        <v>28.88138887537506</v>
+        <v>28.88138887537505</v>
       </c>
     </row>
     <row r="1131" spans="1:2">
@@ -9391,7 +9391,7 @@
         <v>1131</v>
       </c>
       <c r="B1131">
-        <v>29.96885827143185</v>
+        <v>29.96885827143184</v>
       </c>
     </row>
     <row r="1132" spans="1:2">
@@ -9423,7 +9423,7 @@
         <v>1135</v>
       </c>
       <c r="B1135">
-        <v>33.45200756592194</v>
+        <v>33.45200756592193</v>
       </c>
     </row>
     <row r="1136" spans="1:2">
@@ -9455,7 +9455,7 @@
         <v>1139</v>
       </c>
       <c r="B1139">
-        <v>27.74037540055485</v>
+        <v>27.74037540055484</v>
       </c>
     </row>
     <row r="1140" spans="1:2">
@@ -9527,7 +9527,7 @@
         <v>1148</v>
       </c>
       <c r="B1148">
-        <v>28.25653211384521</v>
+        <v>28.2565321138452</v>
       </c>
     </row>
     <row r="1149" spans="1:2">
@@ -9583,7 +9583,7 @@
         <v>1155</v>
       </c>
       <c r="B1155">
-        <v>29.62625822723674</v>
+        <v>29.62625822723673</v>
       </c>
     </row>
     <row r="1156" spans="1:2">
@@ -9743,7 +9743,7 @@
         <v>1175</v>
       </c>
       <c r="B1175">
-        <v>28.79041962497458</v>
+        <v>28.79041962497457</v>
       </c>
     </row>
     <row r="1176" spans="1:2">
@@ -10119,7 +10119,7 @@
         <v>1222</v>
       </c>
       <c r="B1222">
-        <v>9.832591961295869</v>
+        <v>9.832591961295863</v>
       </c>
     </row>
     <row r="1223" spans="1:2">
@@ -10151,7 +10151,7 @@
         <v>1226</v>
       </c>
       <c r="B1226">
-        <v>10.53830702239239</v>
+        <v>10.53830702239238</v>
       </c>
     </row>
     <row r="1227" spans="1:2">
@@ -10159,7 +10159,7 @@
         <v>1227</v>
       </c>
       <c r="B1227">
-        <v>10.96750955851193</v>
+        <v>10.96750955851192</v>
       </c>
     </row>
     <row r="1228" spans="1:2">
@@ -10175,7 +10175,7 @@
         <v>1229</v>
       </c>
       <c r="B1229">
-        <v>11.25313659279128</v>
+        <v>11.25313659279127</v>
       </c>
     </row>
     <row r="1230" spans="1:2">
@@ -10207,7 +10207,7 @@
         <v>1233</v>
       </c>
       <c r="B1233">
-        <v>15.33825380069177</v>
+        <v>15.33825380069176</v>
       </c>
     </row>
     <row r="1234" spans="1:2">
@@ -10375,7 +10375,7 @@
         <v>1254</v>
       </c>
       <c r="B1254">
-        <v>6.362542942233941</v>
+        <v>6.36254294223394</v>
       </c>
     </row>
     <row r="1255" spans="1:2">
@@ -10511,7 +10511,7 @@
         <v>1271</v>
       </c>
       <c r="B1271">
-        <v>4.91799579267217</v>
+        <v>4.917995792672169</v>
       </c>
     </row>
     <row r="1272" spans="1:2">
@@ -10623,7 +10623,7 @@
         <v>1285</v>
       </c>
       <c r="B1285">
-        <v>8.334442118762937</v>
+        <v>8.334442118762935</v>
       </c>
     </row>
     <row r="1286" spans="1:2">
@@ -10655,7 +10655,7 @@
         <v>1289</v>
       </c>
       <c r="B1289">
-        <v>9.841149635624779</v>
+        <v>9.841149635624776</v>
       </c>
     </row>
     <row r="1290" spans="1:2">
@@ -10695,7 +10695,7 @@
         <v>1294</v>
       </c>
       <c r="B1294">
-        <v>0.8423301257685056</v>
+        <v>0.8423301257685055</v>
       </c>
     </row>
     <row r="1295" spans="1:2">
@@ -10727,7 +10727,7 @@
         <v>1298</v>
       </c>
       <c r="B1298">
-        <v>7.179800840644968</v>
+        <v>7.179800840644967</v>
       </c>
     </row>
     <row r="1299" spans="1:2">
@@ -10751,7 +10751,7 @@
         <v>1301</v>
       </c>
       <c r="B1301">
-        <v>8.241274835572495</v>
+        <v>8.241274835572494</v>
       </c>
     </row>
     <row r="1302" spans="1:2">
@@ -10783,7 +10783,7 @@
         <v>1305</v>
       </c>
       <c r="B1305">
-        <v>5.985624279411584</v>
+        <v>5.985624279411583</v>
       </c>
     </row>
     <row r="1306" spans="1:2">
@@ -10895,7 +10895,7 @@
         <v>1319</v>
       </c>
       <c r="B1319">
-        <v>8.662388611024982</v>
+        <v>8.66238861102498</v>
       </c>
     </row>
     <row r="1320" spans="1:2">
@@ -10927,7 +10927,7 @@
         <v>1323</v>
       </c>
       <c r="B1323">
-        <v>9.976079541824465</v>
+        <v>9.976079541824459</v>
       </c>
     </row>
     <row r="1324" spans="1:2">
@@ -11119,7 +11119,7 @@
         <v>1347</v>
       </c>
       <c r="B1347">
-        <v>6.718653561311341</v>
+        <v>6.71865356131134</v>
       </c>
     </row>
     <row r="1348" spans="1:2">
@@ -11127,7 +11127,7 @@
         <v>1348</v>
       </c>
       <c r="B1348">
-        <v>7.429702515311497</v>
+        <v>7.429702515311496</v>
       </c>
     </row>
     <row r="1349" spans="1:2">
@@ -11191,7 +11191,7 @@
         <v>1356</v>
       </c>
       <c r="B1356">
-        <v>7.893047827435084</v>
+        <v>7.893047827435083</v>
       </c>
     </row>
     <row r="1357" spans="1:2">
@@ -11223,7 +11223,7 @@
         <v>1360</v>
       </c>
       <c r="B1360">
-        <v>6.889924276305032</v>
+        <v>6.889924276305031</v>
       </c>
     </row>
     <row r="1361" spans="1:2">
@@ -11335,7 +11335,7 @@
         <v>1374</v>
       </c>
       <c r="B1374">
-        <v>8.636862123557579</v>
+        <v>8.636862123557577</v>
       </c>
     </row>
     <row r="1375" spans="1:2">
@@ -11391,7 +11391,7 @@
         <v>1381</v>
       </c>
       <c r="B1381">
-        <v>4.614579346346079</v>
+        <v>4.614579346346078</v>
       </c>
     </row>
     <row r="1382" spans="1:2">
@@ -11743,7 +11743,7 @@
         <v>1425</v>
       </c>
       <c r="B1425">
-        <v>23.1682620477108</v>
+        <v>23.16826204771079</v>
       </c>
     </row>
     <row r="1426" spans="1:2">
@@ -11807,7 +11807,7 @@
         <v>1433</v>
       </c>
       <c r="B1433">
-        <v>15.71643266898037</v>
+        <v>15.71643266898036</v>
       </c>
     </row>
     <row r="1434" spans="1:2">
@@ -11871,7 +11871,7 @@
         <v>1441</v>
       </c>
       <c r="B1441">
-        <v>20.13313045002231</v>
+        <v>20.1331304500223</v>
       </c>
     </row>
     <row r="1442" spans="1:2">
@@ -11887,7 +11887,7 @@
         <v>1443</v>
       </c>
       <c r="B1443">
-        <v>21.12338818255513</v>
+        <v>21.12338818255512</v>
       </c>
     </row>
     <row r="1444" spans="1:2">
@@ -11943,7 +11943,7 @@
         <v>1450</v>
       </c>
       <c r="B1450">
-        <v>24.95362150813185</v>
+        <v>24.95362150813184</v>
       </c>
     </row>
     <row r="1451" spans="1:2">
@@ -11975,7 +11975,7 @@
         <v>1454</v>
       </c>
       <c r="B1454">
-        <v>16.08520395692794</v>
+        <v>16.08520395692793</v>
       </c>
     </row>
     <row r="1455" spans="1:2">
@@ -12063,7 +12063,7 @@
         <v>1465</v>
       </c>
       <c r="B1465">
-        <v>24.86860159981619</v>
+        <v>24.86860159981618</v>
       </c>
     </row>
     <row r="1466" spans="1:2">
@@ -12079,7 +12079,7 @@
         <v>1467</v>
       </c>
       <c r="B1467">
-        <v>26.5279991278206</v>
+        <v>26.52799912782059</v>
       </c>
     </row>
     <row r="1468" spans="1:2">
@@ -12087,7 +12087,7 @@
         <v>1468</v>
       </c>
       <c r="B1468">
-        <v>27.10394233299787</v>
+        <v>27.10394233299786</v>
       </c>
     </row>
     <row r="1469" spans="1:2">
@@ -12095,7 +12095,7 @@
         <v>1469</v>
       </c>
       <c r="B1469">
-        <v>27.40941027659459</v>
+        <v>27.40941027659458</v>
       </c>
     </row>
     <row r="1470" spans="1:2">
@@ -12183,7 +12183,7 @@
         <v>1480</v>
       </c>
       <c r="B1480">
-        <v>15.13401259384868</v>
+        <v>15.13401259384867</v>
       </c>
     </row>
     <row r="1481" spans="1:2">
@@ -12495,7 +12495,7 @@
         <v>1519</v>
       </c>
       <c r="B1519">
-        <v>51.67311325261376</v>
+        <v>51.67311325261375</v>
       </c>
     </row>
     <row r="1520" spans="1:2">
@@ -12711,7 +12711,7 @@
         <v>1546</v>
       </c>
       <c r="B1546">
-        <v>18.70818975294698</v>
+        <v>18.70818975294697</v>
       </c>
     </row>
     <row r="1547" spans="1:2">
@@ -12719,7 +12719,7 @@
         <v>1547</v>
       </c>
       <c r="B1547">
-        <v>16.23554939976121</v>
+        <v>16.2355493997612</v>
       </c>
     </row>
     <row r="1548" spans="1:2">
@@ -12751,7 +12751,7 @@
         <v>1551</v>
       </c>
       <c r="B1551">
-        <v>3.804208617343593</v>
+        <v>3.804208617343592</v>
       </c>
     </row>
     <row r="1552" spans="1:2">
@@ -12807,7 +12807,7 @@
         <v>1558</v>
       </c>
       <c r="B1558">
-        <v>8.238138975458819</v>
+        <v>8.238138975458817</v>
       </c>
     </row>
     <row r="1559" spans="1:2">
@@ -12911,7 +12911,7 @@
         <v>1571</v>
       </c>
       <c r="B1571">
-        <v>5.978297503445051</v>
+        <v>5.97829750344505</v>
       </c>
     </row>
     <row r="1572" spans="1:2">
@@ -13071,7 +13071,7 @@
         <v>1591</v>
       </c>
       <c r="B1591">
-        <v>32.98338697510245</v>
+        <v>32.98338697510244</v>
       </c>
     </row>
     <row r="1592" spans="1:2">
@@ -13095,7 +13095,7 @@
         <v>1594</v>
       </c>
       <c r="B1594">
-        <v>17.39974479373954</v>
+        <v>17.39974479373953</v>
       </c>
     </row>
     <row r="1595" spans="1:2">
@@ -13207,7 +13207,7 @@
         <v>1608</v>
       </c>
       <c r="B1608">
-        <v>24.08771381730304</v>
+        <v>24.08771381730303</v>
       </c>
     </row>
     <row r="1609" spans="1:2">
@@ -13327,7 +13327,7 @@
         <v>1623</v>
       </c>
       <c r="B1623">
-        <v>19.54470241859806</v>
+        <v>19.54470241859805</v>
       </c>
     </row>
     <row r="1624" spans="1:2">
@@ -13575,7 +13575,7 @@
         <v>1654</v>
       </c>
       <c r="B1654">
-        <v>24.48740409982938</v>
+        <v>24.48740409982937</v>
       </c>
     </row>
     <row r="1655" spans="1:2">
@@ -13727,7 +13727,7 @@
         <v>1673</v>
       </c>
       <c r="B1673">
-        <v>8.925419868223539</v>
+        <v>8.925419868223537</v>
       </c>
     </row>
     <row r="1674" spans="1:2">
@@ -13807,7 +13807,7 @@
         <v>1683</v>
       </c>
       <c r="B1683">
-        <v>22.39763175155079</v>
+        <v>22.39763175155078</v>
       </c>
     </row>
     <row r="1684" spans="1:2">
@@ -13871,7 +13871,7 @@
         <v>1691</v>
       </c>
       <c r="B1691">
-        <v>19.38313235498406</v>
+        <v>19.38313235498405</v>
       </c>
     </row>
     <row r="1692" spans="1:2">
@@ -13895,7 +13895,7 @@
         <v>1694</v>
       </c>
       <c r="B1694">
-        <v>8.848224956640141</v>
+        <v>8.84822495664014</v>
       </c>
     </row>
     <row r="1695" spans="1:2">
@@ -14087,7 +14087,7 @@
         <v>1718</v>
       </c>
       <c r="B1718">
-        <v>15.73167236299076</v>
+        <v>15.73167236299075</v>
       </c>
     </row>
     <row r="1719" spans="1:2">
@@ -14255,7 +14255,7 @@
         <v>1739</v>
       </c>
       <c r="B1739">
-        <v>17.83023684242919</v>
+        <v>17.83023684242918</v>
       </c>
     </row>
     <row r="1740" spans="1:2">
@@ -14319,7 +14319,7 @@
         <v>1747</v>
       </c>
       <c r="B1747">
-        <v>3.387549521678758</v>
+        <v>3.387549521678757</v>
       </c>
     </row>
     <row r="1748" spans="1:2">
@@ -14391,7 +14391,7 @@
         <v>1756</v>
       </c>
       <c r="B1756">
-        <v>20.75022082902764</v>
+        <v>20.75022082902763</v>
       </c>
     </row>
     <row r="1757" spans="1:2">
@@ -14463,7 +14463,7 @@
         <v>1765</v>
       </c>
       <c r="B1765">
-        <v>10.51450965405309</v>
+        <v>10.51450965405308</v>
       </c>
     </row>
     <row r="1766" spans="1:2">
@@ -14487,7 +14487,7 @@
         <v>1768</v>
       </c>
       <c r="B1768">
-        <v>8.776276016648781</v>
+        <v>8.776276016648779</v>
       </c>
     </row>
     <row r="1769" spans="1:2">
@@ -14639,7 +14639,7 @@
         <v>1787</v>
       </c>
       <c r="B1787">
-        <v>15.2834495164621</v>
+        <v>15.28344951646209</v>
       </c>
     </row>
     <row r="1788" spans="1:2">
@@ -14647,7 +14647,7 @@
         <v>1788</v>
       </c>
       <c r="B1788">
-        <v>12.9262791525089</v>
+        <v>12.92627915250889</v>
       </c>
     </row>
     <row r="1789" spans="1:2">
@@ -14783,7 +14783,7 @@
         <v>1805</v>
       </c>
       <c r="B1805">
-        <v>18.7639904787081</v>
+        <v>18.76399047870809</v>
       </c>
     </row>
     <row r="1806" spans="1:2">
@@ -15087,7 +15087,7 @@
         <v>1843</v>
       </c>
       <c r="B1843">
-        <v>15.96481037424586</v>
+        <v>15.96481037424585</v>
       </c>
     </row>
     <row r="1844" spans="1:2">
@@ -15183,7 +15183,7 @@
         <v>1855</v>
       </c>
       <c r="B1855">
-        <v>32.58070736798176</v>
+        <v>32.58070736798175</v>
       </c>
     </row>
     <row r="1856" spans="1:2">
@@ -15431,7 +15431,7 @@
         <v>1886</v>
       </c>
       <c r="B1886">
-        <v>8.423535714515985</v>
+        <v>8.423535714515983</v>
       </c>
     </row>
     <row r="1887" spans="1:2">
@@ -15487,7 +15487,7 @@
         <v>1893</v>
       </c>
       <c r="B1893">
-        <v>8.578365144240774</v>
+        <v>8.578365144240772</v>
       </c>
     </row>
     <row r="1894" spans="1:2">
@@ -15567,7 +15567,7 @@
         <v>1903</v>
       </c>
       <c r="B1903">
-        <v>26.7406221663694</v>
+        <v>26.74062216636939</v>
       </c>
     </row>
     <row r="1904" spans="1:2">
@@ -15615,7 +15615,7 @@
         <v>1909</v>
       </c>
       <c r="B1909">
-        <v>7.669229475209415</v>
+        <v>7.669229475209414</v>
       </c>
     </row>
     <row r="1910" spans="1:2">
@@ -15639,7 +15639,7 @@
         <v>1912</v>
       </c>
       <c r="B1912">
-        <v>3.317740000269626</v>
+        <v>3.317740000269625</v>
       </c>
     </row>
     <row r="1913" spans="1:2">
@@ -15775,7 +15775,7 @@
         <v>1929</v>
       </c>
       <c r="B1929">
-        <v>16.77189870761534</v>
+        <v>16.77189870761533</v>
       </c>
     </row>
     <row r="1930" spans="1:2">
@@ -15887,7 +15887,7 @@
         <v>1943</v>
       </c>
       <c r="B1943">
-        <v>6.5336671217083</v>
+        <v>6.533667121708299</v>
       </c>
     </row>
     <row r="1944" spans="1:2">
@@ -15911,7 +15911,7 @@
         <v>1946</v>
       </c>
       <c r="B1946">
-        <v>10.9509217377237</v>
+        <v>10.95092173772369</v>
       </c>
     </row>
     <row r="1947" spans="1:2">
@@ -16199,7 +16199,7 @@
         <v>1982</v>
       </c>
       <c r="B1982">
-        <v>14.52632979518438</v>
+        <v>14.52632979518437</v>
       </c>
     </row>
     <row r="1983" spans="1:2">
@@ -16239,7 +16239,7 @@
         <v>1987</v>
       </c>
       <c r="B1987">
-        <v>16.31719899113226</v>
+        <v>16.31719899113225</v>
       </c>
     </row>
     <row r="1988" spans="1:2">
@@ -16407,7 +16407,7 @@
         <v>2008</v>
       </c>
       <c r="B2008">
-        <v>16.77720329341511</v>
+        <v>16.7772032934151</v>
       </c>
     </row>
     <row r="2009" spans="1:2">
@@ -16543,7 +16543,7 @@
         <v>2025</v>
       </c>
       <c r="B2025">
-        <v>21.65575172428346</v>
+        <v>21.65575172428345</v>
       </c>
     </row>
     <row r="2026" spans="1:2">
@@ -16551,7 +16551,7 @@
         <v>2026</v>
       </c>
       <c r="B2026">
-        <v>20.36113971810084</v>
+        <v>20.36113971810083</v>
       </c>
     </row>
     <row r="2027" spans="1:2">
@@ -16703,7 +16703,7 @@
         <v>2045</v>
       </c>
       <c r="B2045">
-        <v>14.32056461894025</v>
+        <v>14.32056461894024</v>
       </c>
     </row>
     <row r="2046" spans="1:2">
@@ -16711,7 +16711,7 @@
         <v>2046</v>
       </c>
       <c r="B2046">
-        <v>44.07847035674366</v>
+        <v>44.07847035674365</v>
       </c>
     </row>
     <row r="2047" spans="1:2">
@@ -16839,7 +16839,7 @@
         <v>2062</v>
       </c>
       <c r="B2062">
-        <v>12.89222429781645</v>
+        <v>12.89222429781644</v>
       </c>
     </row>
     <row r="2063" spans="1:2">
@@ -17095,7 +17095,7 @@
         <v>2094</v>
       </c>
       <c r="B2094">
-        <v>37.73465465388018</v>
+        <v>37.73465465388017</v>
       </c>
     </row>
     <row r="2095" spans="1:2">
@@ -17455,7 +17455,7 @@
         <v>2139</v>
       </c>
       <c r="B2139">
-        <v>9.899382851006788</v>
+        <v>9.899382851006786</v>
       </c>
     </row>
     <row r="2140" spans="1:2">
@@ -17527,7 +17527,7 @@
         <v>2148</v>
       </c>
       <c r="B2148">
-        <v>9.00047536122471</v>
+        <v>9.000475361224709</v>
       </c>
     </row>
     <row r="2149" spans="1:2">
@@ -17647,7 +17647,7 @@
         <v>2163</v>
       </c>
       <c r="B2163">
-        <v>16.849474611549</v>
+        <v>16.84947461154899</v>
       </c>
     </row>
     <row r="2164" spans="1:2">
@@ -17655,7 +17655,7 @@
         <v>2164</v>
       </c>
       <c r="B2164">
-        <v>18.11727061769411</v>
+        <v>18.1172706176941</v>
       </c>
     </row>
     <row r="2165" spans="1:2">
@@ -17759,7 +17759,7 @@
         <v>2177</v>
       </c>
       <c r="B2177">
-        <v>0.6541580039752156</v>
+        <v>0.6541580039752155</v>
       </c>
     </row>
     <row r="2178" spans="1:2">
@@ -18095,7 +18095,7 @@
         <v>2219</v>
       </c>
       <c r="B2219">
-        <v>0.6696819768931072</v>
+        <v>0.669681976893107</v>
       </c>
     </row>
     <row r="2220" spans="1:2">
@@ -18255,7 +18255,7 @@
         <v>2239</v>
       </c>
       <c r="B2239">
-        <v>15.38162831441365</v>
+        <v>15.38162831441364</v>
       </c>
     </row>
     <row r="2240" spans="1:2">
@@ -18991,7 +18991,7 @@
         <v>2331</v>
       </c>
       <c r="B2331">
-        <v>5.842986604895107</v>
+        <v>5.842986604895106</v>
       </c>
     </row>
     <row r="2332" spans="1:2">
@@ -18999,7 +18999,7 @@
         <v>2332</v>
       </c>
       <c r="B2332">
-        <v>7.443125168882187</v>
+        <v>7.443125168882186</v>
       </c>
     </row>
     <row r="2333" spans="1:2">
@@ -19031,7 +19031,7 @@
         <v>2336</v>
       </c>
       <c r="B2336">
-        <v>8.325503452083765</v>
+        <v>8.325503452083764</v>
       </c>
     </row>
     <row r="2337" spans="1:2">
@@ -19159,7 +19159,7 @@
         <v>2352</v>
       </c>
       <c r="B2352">
-        <v>8.717280816566252</v>
+        <v>8.71728081656625</v>
       </c>
     </row>
     <row r="2353" spans="1:2">
@@ -19279,7 +19279,7 @@
         <v>2367</v>
       </c>
       <c r="B2367">
-        <v>9.125909765771766</v>
+        <v>9.125909765771764</v>
       </c>
     </row>
     <row r="2368" spans="1:2">
@@ -19591,7 +19591,7 @@
         <v>2406</v>
       </c>
       <c r="B2406">
-        <v>45.07432574611491</v>
+        <v>45.0743257461149</v>
       </c>
     </row>
     <row r="2407" spans="1:2">
@@ -19615,7 +19615,7 @@
         <v>2409</v>
       </c>
       <c r="B2409">
-        <v>17.01755085222128</v>
+        <v>17.01755085222127</v>
       </c>
     </row>
     <row r="2410" spans="1:2">
@@ -19631,7 +19631,7 @@
         <v>2411</v>
       </c>
       <c r="B2411">
-        <v>15.13005613482675</v>
+        <v>15.13005613482674</v>
       </c>
     </row>
     <row r="2412" spans="1:2">
@@ -19727,7 +19727,7 @@
         <v>2423</v>
       </c>
       <c r="B2423">
-        <v>7.341312290051235</v>
+        <v>7.341312290051234</v>
       </c>
     </row>
     <row r="2424" spans="1:2">
@@ -20207,7 +20207,7 @@
         <v>2483</v>
       </c>
       <c r="B2483">
-        <v>5.652754193700028</v>
+        <v>5.652754193700027</v>
       </c>
     </row>
     <row r="2484" spans="1:2">
@@ -20343,7 +20343,7 @@
         <v>2500</v>
       </c>
       <c r="B2500">
-        <v>18.55025377021238</v>
+        <v>18.55025377021237</v>
       </c>
     </row>
     <row r="2501" spans="1:2">
@@ -20415,7 +20415,7 @@
         <v>2509</v>
       </c>
       <c r="B2509">
-        <v>0.9075618775537478</v>
+        <v>0.9075618775537476</v>
       </c>
     </row>
     <row r="2510" spans="1:2">
@@ -20479,7 +20479,7 @@
         <v>2517</v>
       </c>
       <c r="B2517">
-        <v>10.4296069741529</v>
+        <v>10.42960697415289</v>
       </c>
     </row>
     <row r="2518" spans="1:2">
@@ -20495,7 +20495,7 @@
         <v>2519</v>
       </c>
       <c r="B2519">
-        <v>12.34884128503445</v>
+        <v>12.34884128503444</v>
       </c>
     </row>
     <row r="2520" spans="1:2">
@@ -20527,7 +20527,7 @@
         <v>2523</v>
       </c>
       <c r="B2523">
-        <v>15.16334900481868</v>
+        <v>15.16334900481867</v>
       </c>
     </row>
     <row r="2524" spans="1:2">
@@ -20583,7 +20583,7 @@
         <v>2530</v>
       </c>
       <c r="B2530">
-        <v>6.520332389449209</v>
+        <v>6.520332389449208</v>
       </c>
     </row>
     <row r="2531" spans="1:2">
@@ -20743,7 +20743,7 @@
         <v>2550</v>
       </c>
       <c r="B2550">
-        <v>32.8813982536483</v>
+        <v>32.88139825364829</v>
       </c>
     </row>
     <row r="2551" spans="1:2">
@@ -20759,7 +20759,7 @@
         <v>2552</v>
       </c>
       <c r="B2552">
-        <v>8.413336842370571</v>
+        <v>8.413336842370569</v>
       </c>
     </row>
     <row r="2553" spans="1:2">
@@ -20871,7 +20871,7 @@
         <v>2566</v>
       </c>
       <c r="B2566">
-        <v>8.682639819796481</v>
+        <v>8.68263981979648</v>
       </c>
     </row>
     <row r="2567" spans="1:2">
@@ -21087,7 +21087,7 @@
         <v>2593</v>
       </c>
       <c r="B2593">
-        <v>11.79326651704414</v>
+        <v>11.79326651704413</v>
       </c>
     </row>
     <row r="2594" spans="1:2">
@@ -21127,7 +21127,7 @@
         <v>2598</v>
       </c>
       <c r="B2598">
-        <v>42.57530899944962</v>
+        <v>42.57530899944961</v>
       </c>
     </row>
     <row r="2599" spans="1:2">
@@ -21359,7 +21359,7 @@
         <v>2627</v>
       </c>
       <c r="B2627">
-        <v>5.93099583780511</v>
+        <v>5.930995837805109</v>
       </c>
     </row>
     <row r="2628" spans="1:2">
@@ -21519,7 +21519,7 @@
         <v>2647</v>
       </c>
       <c r="B2647">
-        <v>9.837515554745378</v>
+        <v>9.837515554745377</v>
       </c>
     </row>
     <row r="2648" spans="1:2">
@@ -21551,7 +21551,7 @@
         <v>2651</v>
       </c>
       <c r="B2651">
-        <v>4.69326892022665</v>
+        <v>4.693268920226649</v>
       </c>
     </row>
     <row r="2652" spans="1:2">
@@ -21807,7 +21807,7 @@
         <v>2683</v>
       </c>
       <c r="B2683">
-        <v>6.443166784969677</v>
+        <v>6.443166784969676</v>
       </c>
     </row>
     <row r="2684" spans="1:2">
@@ -21999,7 +21999,7 @@
         <v>2707</v>
       </c>
       <c r="B2707">
-        <v>1.829704039280898</v>
+        <v>1.829704039280897</v>
       </c>
     </row>
     <row r="2708" spans="1:2">
@@ -22015,7 +22015,7 @@
         <v>2709</v>
       </c>
       <c r="B2709">
-        <v>10.47834468788228</v>
+        <v>10.47834468788227</v>
       </c>
     </row>
     <row r="2710" spans="1:2">
@@ -22119,7 +22119,7 @@
         <v>2722</v>
       </c>
       <c r="B2722">
-        <v>9.885286134047178</v>
+        <v>9.885286134047176</v>
       </c>
     </row>
     <row r="2723" spans="1:2">
@@ -22271,7 +22271,7 @@
         <v>2741</v>
       </c>
       <c r="B2741">
-        <v>6.441818658191835</v>
+        <v>6.441818658191834</v>
       </c>
     </row>
     <row r="2742" spans="1:2">
@@ -22303,7 +22303,7 @@
         <v>2745</v>
       </c>
       <c r="B2745">
-        <v>6.285465259066007</v>
+        <v>6.285465259066006</v>
       </c>
     </row>
     <row r="2746" spans="1:2">
@@ -22463,7 +22463,7 @@
         <v>2765</v>
       </c>
       <c r="B2765">
-        <v>3.865020857865822</v>
+        <v>3.865020857865821</v>
       </c>
     </row>
     <row r="2766" spans="1:2">
@@ -22655,7 +22655,7 @@
         <v>2789</v>
       </c>
       <c r="B2789">
-        <v>5.240989384380838</v>
+        <v>5.240989384380837</v>
       </c>
     </row>
     <row r="2790" spans="1:2">
@@ -22679,7 +22679,7 @@
         <v>2792</v>
       </c>
       <c r="B2792">
-        <v>5.696333857148971</v>
+        <v>5.69633385714897</v>
       </c>
     </row>
     <row r="2793" spans="1:2">
@@ -22815,7 +22815,7 @@
         <v>2809</v>
       </c>
       <c r="B2809">
-        <v>2.977543138591536</v>
+        <v>2.977543138591535</v>
       </c>
     </row>
     <row r="2810" spans="1:2">
@@ -22887,7 +22887,7 @@
         <v>2818</v>
       </c>
       <c r="B2818">
-        <v>4.526687341851542</v>
+        <v>4.526687341851541</v>
       </c>
     </row>
     <row r="2819" spans="1:2">
@@ -22991,7 +22991,7 @@
         <v>2831</v>
       </c>
       <c r="B2831">
-        <v>7.373755254031046</v>
+        <v>7.373755254031045</v>
       </c>
     </row>
     <row r="2832" spans="1:2">
@@ -22999,7 +22999,7 @@
         <v>2832</v>
       </c>
       <c r="B2832">
-        <v>9.412738391309624</v>
+        <v>9.412738391309622</v>
       </c>
     </row>
     <row r="2833" spans="1:2">
@@ -23175,7 +23175,7 @@
         <v>2854</v>
       </c>
       <c r="B2854">
-        <v>5.018108859478885</v>
+        <v>5.018108859478884</v>
       </c>
     </row>
     <row r="2855" spans="1:2">
@@ -24215,7 +24215,7 @@
         <v>2984</v>
       </c>
       <c r="B2984">
-        <v>0.7944452487616285</v>
+        <v>0.7944452487616284</v>
       </c>
     </row>
     <row r="2985" spans="1:2">
@@ -24591,7 +24591,7 @@
         <v>3031</v>
       </c>
       <c r="B3031">
-        <v>6.254546264487235</v>
+        <v>6.254546264487234</v>
       </c>
     </row>
     <row r="3032" spans="1:2">
@@ -27087,7 +27087,7 @@
         <v>3343</v>
       </c>
       <c r="B3343">
-        <v>8.007550682240073</v>
+        <v>8.007550682240071</v>
       </c>
     </row>
     <row r="3344" spans="1:2">
@@ -27199,7 +27199,7 @@
         <v>3357</v>
       </c>
       <c r="B3357">
-        <v>6.701538212653518</v>
+        <v>6.701538212653517</v>
       </c>
     </row>
     <row r="3358" spans="1:2">
@@ -27471,7 +27471,7 @@
         <v>3391</v>
       </c>
       <c r="B3391">
-        <v>19.29556272863205</v>
+        <v>19.29556272863204</v>
       </c>
     </row>
     <row r="3392" spans="1:2">
@@ -27503,7 +27503,7 @@
         <v>3395</v>
       </c>
       <c r="B3395">
-        <v>0.8059893169744988</v>
+        <v>0.8059893169744987</v>
       </c>
     </row>
     <row r="3396" spans="1:2">
@@ -51847,7 +51847,7 @@
         <v>6438</v>
       </c>
       <c r="B6438">
-        <v>3.886327122376502</v>
+        <v>3.886327122376501</v>
       </c>
     </row>
     <row r="6439" spans="1:2">
@@ -54343,7 +54343,7 @@
         <v>6750</v>
       </c>
       <c r="B6750">
-        <v>43.75462685902287</v>
+        <v>43.75462685902286</v>
       </c>
     </row>
     <row r="6751" spans="1:2">
@@ -54375,7 +54375,7 @@
         <v>6754</v>
       </c>
       <c r="B6754">
-        <v>5.394851679678045</v>
+        <v>5.394851679678044</v>
       </c>
     </row>
     <row r="6755" spans="1:2">
@@ -54503,7 +54503,7 @@
         <v>6770</v>
       </c>
       <c r="B6770">
-        <v>5.499243583649216</v>
+        <v>5.499243583649215</v>
       </c>
     </row>
     <row r="6771" spans="1:2">
@@ -54511,7 +54511,7 @@
         <v>6771</v>
       </c>
       <c r="B6771">
-        <v>5.525707898440335</v>
+        <v>5.525707898440334</v>
       </c>
     </row>
     <row r="6772" spans="1:2">
@@ -55687,7 +55687,7 @@
         <v>6918</v>
       </c>
       <c r="B6918">
-        <v>0.5247143876192727</v>
+        <v>0.5247143876192726</v>
       </c>
     </row>
     <row r="6919" spans="1:2">
@@ -55887,7 +55887,7 @@
         <v>6943</v>
       </c>
       <c r="B6943">
-        <v>7.371850292279747</v>
+        <v>7.371850292279746</v>
       </c>
     </row>
     <row r="6944" spans="1:2">
@@ -56271,7 +56271,7 @@
         <v>6991</v>
       </c>
       <c r="B6991">
-        <v>19.4086295353476</v>
+        <v>19.40862953534759</v>
       </c>
     </row>
     <row r="6992" spans="1:2">
@@ -56463,7 +56463,7 @@
         <v>7015</v>
       </c>
       <c r="B7015">
-        <v>2.876331055389841</v>
+        <v>2.87633105538984</v>
       </c>
     </row>
     <row r="7016" spans="1:2">
@@ -57959,7 +57959,7 @@
         <v>7202</v>
       </c>
       <c r="B7202">
-        <v>9.471235370626429</v>
+        <v>9.471235370626427</v>
       </c>
     </row>
     <row r="7203" spans="1:2">
@@ -58079,7 +58079,7 @@
         <v>7217</v>
       </c>
       <c r="B7217">
-        <v>3.892422999980658</v>
+        <v>3.892422999980657</v>
       </c>
     </row>
     <row r="7218" spans="1:2">
@@ -58223,7 +58223,7 @@
         <v>7235</v>
       </c>
       <c r="B7235">
-        <v>6.182040489522418</v>
+        <v>6.182040489522417</v>
       </c>
     </row>
     <row r="7236" spans="1:2">
@@ -58343,7 +58343,7 @@
         <v>7250</v>
       </c>
       <c r="B7250">
-        <v>6.081839501404104</v>
+        <v>6.081839501404103</v>
       </c>
     </row>
     <row r="7251" spans="1:2">
@@ -58359,7 +58359,7 @@
         <v>7252</v>
       </c>
       <c r="B7252">
-        <v>8.466060322225747</v>
+        <v>8.466060322225745</v>
       </c>
     </row>
     <row r="7253" spans="1:2">
@@ -58367,7 +58367,7 @@
         <v>7253</v>
       </c>
       <c r="B7253">
-        <v>7.61641807404264</v>
+        <v>7.616418074042639</v>
       </c>
     </row>
     <row r="7254" spans="1:2">
@@ -58543,7 +58543,7 @@
         <v>7275</v>
       </c>
       <c r="B7275">
-        <v>4.674483066648458</v>
+        <v>4.674483066648457</v>
       </c>
     </row>
     <row r="7276" spans="1:2">
@@ -58727,7 +58727,7 @@
         <v>7298</v>
       </c>
       <c r="B7298">
-        <v>0.761823511448234</v>
+        <v>0.7618235114482339</v>
       </c>
     </row>
     <row r="7299" spans="1:2">
@@ -58783,7 +58783,7 @@
         <v>7305</v>
       </c>
       <c r="B7305">
-        <v>8.204934026778488</v>
+        <v>8.204934026778487</v>
       </c>
     </row>
     <row r="7306" spans="1:2">
@@ -58791,7 +58791,7 @@
         <v>7306</v>
       </c>
       <c r="B7306">
-        <v>4.919900754423469</v>
+        <v>4.919900754423468</v>
       </c>
     </row>
     <row r="7307" spans="1:2">
@@ -58799,7 +58799,7 @@
         <v>7307</v>
       </c>
       <c r="B7307">
-        <v>2.604759708124692</v>
+        <v>2.604759708124691</v>
       </c>
     </row>
     <row r="7308" spans="1:2">
@@ -58927,7 +58927,7 @@
         <v>7323</v>
       </c>
       <c r="B7323">
-        <v>8.85012991839144</v>
+        <v>8.850129918391438</v>
       </c>
     </row>
     <row r="7324" spans="1:2">
@@ -58975,7 +58975,7 @@
         <v>7329</v>
       </c>
       <c r="B7329">
-        <v>7.307521199293582</v>
+        <v>7.307521199293581</v>
       </c>
     </row>
     <row r="7330" spans="1:2">
@@ -59143,7 +59143,7 @@
         <v>7350</v>
       </c>
       <c r="B7350">
-        <v>10.05793428292258</v>
+        <v>10.05793428292257</v>
       </c>
     </row>
     <row r="7351" spans="1:2">
@@ -59167,7 +59167,7 @@
         <v>7353</v>
       </c>
       <c r="B7353">
-        <v>4.40342166299058</v>
+        <v>4.403421662990579</v>
       </c>
     </row>
     <row r="7354" spans="1:2">
@@ -59271,7 +59271,7 @@
         <v>7366</v>
       </c>
       <c r="B7366">
-        <v>3.667549592015808</v>
+        <v>3.667549592015807</v>
       </c>
     </row>
     <row r="7367" spans="1:2">
@@ -59327,7 +59327,7 @@
         <v>7373</v>
       </c>
       <c r="B7373">
-        <v>5.692055019984514</v>
+        <v>5.692055019984513</v>
       </c>
     </row>
     <row r="7374" spans="1:2">
@@ -59335,7 +59335,7 @@
         <v>7374</v>
       </c>
       <c r="B7374">
-        <v>5.164292693563164</v>
+        <v>5.164292693563163</v>
       </c>
     </row>
     <row r="7375" spans="1:2">
@@ -59471,7 +59471,7 @@
         <v>7391</v>
       </c>
       <c r="B7391">
-        <v>4.424112478320071</v>
+        <v>4.42411247832007</v>
       </c>
     </row>
     <row r="7392" spans="1:2">
@@ -59479,7 +59479,7 @@
         <v>7392</v>
       </c>
       <c r="B7392">
-        <v>5.0705392682954</v>
+        <v>5.070539268295399</v>
       </c>
     </row>
     <row r="7393" spans="1:2">
@@ -59727,7 +59727,7 @@
         <v>7423</v>
       </c>
       <c r="B7423">
-        <v>44.41227826977893</v>
+        <v>44.41227826977892</v>
       </c>
     </row>
     <row r="7424" spans="1:2">
@@ -59735,7 +59735,7 @@
         <v>7424</v>
       </c>
       <c r="B7424">
-        <v>25.72222961412509</v>
+        <v>25.72222961412508</v>
       </c>
     </row>
     <row r="7425" spans="1:2">
@@ -59767,7 +59767,7 @@
         <v>7428</v>
       </c>
       <c r="B7428">
-        <v>5.215287054290238</v>
+        <v>5.215287054290237</v>
       </c>
     </row>
     <row r="7429" spans="1:2">
@@ -60135,7 +60135,7 @@
         <v>7474</v>
       </c>
       <c r="B7474">
-        <v>6.241416681955206</v>
+        <v>6.241416681955205</v>
       </c>
     </row>
     <row r="7475" spans="1:2">
@@ -60647,7 +60647,7 @@
         <v>7538</v>
       </c>
       <c r="B7538">
-        <v>7.627525466407906</v>
+        <v>7.627525466407905</v>
       </c>
     </row>
     <row r="7539" spans="1:2">
@@ -60727,7 +60727,7 @@
         <v>7548</v>
       </c>
       <c r="B7548">
-        <v>0.6250853569400102</v>
+        <v>0.6250853569400101</v>
       </c>
     </row>
     <row r="7549" spans="1:2">
@@ -61183,7 +61183,7 @@
         <v>7605</v>
       </c>
       <c r="B7605">
-        <v>0.7778603586837829</v>
+        <v>0.7778603586837828</v>
       </c>
     </row>
     <row r="7606" spans="1:2">
@@ -61223,7 +61223,7 @@
         <v>7610</v>
       </c>
       <c r="B7610">
-        <v>8.015170529245268</v>
+        <v>8.015170529245266</v>
       </c>
     </row>
     <row r="7611" spans="1:2">
@@ -61239,7 +61239,7 @@
         <v>7612</v>
       </c>
       <c r="B7612">
-        <v>8.459788601998394</v>
+        <v>8.459788601998392</v>
       </c>
     </row>
     <row r="7613" spans="1:2">
@@ -61311,7 +61311,7 @@
         <v>7621</v>
       </c>
       <c r="B7621">
-        <v>10.09219428734209</v>
+        <v>10.09219428734208</v>
       </c>
     </row>
     <row r="7622" spans="1:2">
@@ -61375,7 +61375,7 @@
         <v>7629</v>
       </c>
       <c r="B7629">
-        <v>6.745381640037256</v>
+        <v>6.745381640037255</v>
       </c>
     </row>
     <row r="7630" spans="1:2">
@@ -61383,7 +61383,7 @@
         <v>7630</v>
       </c>
       <c r="B7630">
-        <v>9.758327760099084</v>
+        <v>9.758327760099082</v>
       </c>
     </row>
     <row r="7631" spans="1:2">
@@ -61431,7 +61431,7 @@
         <v>7636</v>
       </c>
       <c r="B7636">
-        <v>14.64490633742676</v>
+        <v>14.64490633742675</v>
       </c>
     </row>
     <row r="7637" spans="1:2">
@@ -61519,7 +61519,7 @@
         <v>7647</v>
       </c>
       <c r="B7647">
-        <v>7.304385339179905</v>
+        <v>7.304385339179904</v>
       </c>
     </row>
     <row r="7648" spans="1:2">
@@ -61567,7 +61567,7 @@
         <v>7653</v>
       </c>
       <c r="B7653">
-        <v>9.90354445975578</v>
+        <v>9.903544459755778</v>
       </c>
     </row>
     <row r="7654" spans="1:2">
@@ -61647,7 +61647,7 @@
         <v>7663</v>
       </c>
       <c r="B7663">
-        <v>48.79427643984337</v>
+        <v>48.79427643984336</v>
       </c>
     </row>
     <row r="7664" spans="1:2">
@@ -61695,7 +61695,7 @@
         <v>7669</v>
       </c>
       <c r="B7669">
-        <v>7.164385304011382</v>
+        <v>7.164385304011381</v>
       </c>
     </row>
     <row r="7670" spans="1:2">
@@ -61767,7 +61767,7 @@
         <v>7678</v>
       </c>
       <c r="B7678">
-        <v>6.863958182279636</v>
+        <v>6.863958182279635</v>
       </c>
     </row>
     <row r="7679" spans="1:2">
@@ -61863,7 +61863,7 @@
         <v>7690</v>
       </c>
       <c r="B7690">
-        <v>7.819193925692425</v>
+        <v>7.819193925692424</v>
       </c>
     </row>
     <row r="7691" spans="1:2">
@@ -61927,7 +61927,7 @@
         <v>7698</v>
       </c>
       <c r="B7698">
-        <v>13.22773202287596</v>
+        <v>13.22773202287595</v>
       </c>
     </row>
     <row r="7699" spans="1:2">
@@ -62015,7 +62015,7 @@
         <v>7709</v>
       </c>
       <c r="B7709">
-        <v>20.49645061665078</v>
+        <v>20.49645061665077</v>
       </c>
     </row>
     <row r="7710" spans="1:2">
@@ -62087,7 +62087,7 @@
         <v>7718</v>
       </c>
       <c r="B7718">
-        <v>8.000048063650341</v>
+        <v>8.00004806365034</v>
       </c>
     </row>
     <row r="7719" spans="1:2">
@@ -62111,7 +62111,7 @@
         <v>7721</v>
       </c>
       <c r="B7721">
-        <v>17.59633684647357</v>
+        <v>17.59633684647356</v>
       </c>
     </row>
     <row r="7722" spans="1:2">
@@ -62271,7 +62271,7 @@
         <v>7741</v>
       </c>
       <c r="B7741">
-        <v>20.71349902788337</v>
+        <v>20.71349902788336</v>
       </c>
     </row>
     <row r="7742" spans="1:2">
@@ -62327,7 +62327,7 @@
         <v>7748</v>
       </c>
       <c r="B7748">
-        <v>15.27547798421051</v>
+        <v>15.2754779842105</v>
       </c>
     </row>
     <row r="7749" spans="1:2">
@@ -62567,7 +62567,7 @@
         <v>7778</v>
       </c>
       <c r="B7778">
-        <v>20.60494551516321</v>
+        <v>20.6049455151632</v>
       </c>
     </row>
     <row r="7779" spans="1:2">
@@ -63215,7 +63215,7 @@
         <v>7859</v>
       </c>
       <c r="B7859">
-        <v>19.80084650638808</v>
+        <v>19.80084650638807</v>
       </c>
     </row>
     <row r="7860" spans="1:2">
@@ -63263,7 +63263,7 @@
         <v>7865</v>
       </c>
       <c r="B7865">
-        <v>21.47894196665907</v>
+        <v>21.47894196665906</v>
       </c>
     </row>
     <row r="7866" spans="1:2">
@@ -63343,7 +63343,7 @@
         <v>7875</v>
       </c>
       <c r="B7875">
-        <v>25.38531514808001</v>
+        <v>25.38531514808</v>
       </c>
     </row>
     <row r="7876" spans="1:2">
@@ -63375,7 +63375,7 @@
         <v>7879</v>
       </c>
       <c r="B7879">
-        <v>23.90536501704795</v>
+        <v>23.90536501704794</v>
       </c>
     </row>
     <row r="7880" spans="1:2">
@@ -63407,7 +63407,7 @@
         <v>7883</v>
       </c>
       <c r="B7883">
-        <v>21.31162771068731</v>
+        <v>21.3116277106873</v>
       </c>
     </row>
     <row r="7884" spans="1:2">
@@ -63447,7 +63447,7 @@
         <v>7888</v>
       </c>
       <c r="B7888">
-        <v>21.26174701990715</v>
+        <v>21.26174701990714</v>
       </c>
     </row>
     <row r="7889" spans="1:2">
@@ -63695,7 +63695,7 @@
         <v>7919</v>
       </c>
       <c r="B7919">
-        <v>8.362987237928552</v>
+        <v>8.36298723792855</v>
       </c>
     </row>
     <row r="7920" spans="1:2">
@@ -63799,7 +63799,7 @@
         <v>7932</v>
       </c>
       <c r="B7932">
-        <v>3.810157959428418</v>
+        <v>3.810157959428417</v>
       </c>
     </row>
     <row r="7933" spans="1:2">
@@ -64143,7 +64143,7 @@
         <v>7975</v>
       </c>
       <c r="B7975">
-        <v>47.08977527898898</v>
+        <v>47.08977527898897</v>
       </c>
     </row>
     <row r="7976" spans="1:2">
@@ -64551,7 +64551,7 @@
         <v>8026</v>
       </c>
       <c r="B8026">
-        <v>0.6301584166192381</v>
+        <v>0.630158416619238</v>
       </c>
     </row>
     <row r="8027" spans="1:2">
@@ -64711,7 +64711,7 @@
         <v>8046</v>
       </c>
       <c r="B8046">
-        <v>18.40749886728044</v>
+        <v>18.40749886728043</v>
       </c>
     </row>
     <row r="8047" spans="1:2">
@@ -64815,7 +64815,7 @@
         <v>8059</v>
       </c>
       <c r="B8059">
-        <v>9.524046771793204</v>
+        <v>9.524046771793202</v>
       </c>
     </row>
     <row r="8060" spans="1:2">
@@ -64871,7 +64871,7 @@
         <v>8066</v>
       </c>
       <c r="B8066">
-        <v>12.02092409987627</v>
+        <v>12.02092409987626</v>
       </c>
     </row>
     <row r="8067" spans="1:2">
@@ -65991,7 +65991,7 @@
         <v>8206</v>
       </c>
       <c r="B8206">
-        <v>3.141311234995496</v>
+        <v>3.141311234995495</v>
       </c>
     </row>
     <row r="8207" spans="1:2">
@@ -66031,7 +66031,7 @@
         <v>8211</v>
       </c>
       <c r="B8211">
-        <v>8.006231862566096</v>
+        <v>8.006231862566095</v>
       </c>
     </row>
     <row r="8212" spans="1:2">
@@ -66255,7 +66255,7 @@
         <v>8239</v>
       </c>
       <c r="B8239">
-        <v>48.05515128033945</v>
+        <v>48.05515128033944</v>
       </c>
     </row>
     <row r="8240" spans="1:2">
@@ -66279,7 +66279,7 @@
         <v>8242</v>
       </c>
       <c r="B8242">
-        <v>18.75006960437169</v>
+        <v>18.75006960437168</v>
       </c>
     </row>
     <row r="8243" spans="1:2">
@@ -66383,7 +66383,7 @@
         <v>8255</v>
       </c>
       <c r="B8255">
-        <v>10.50557098737392</v>
+        <v>10.50557098737391</v>
       </c>
     </row>
     <row r="8256" spans="1:2">
@@ -66391,7 +66391,7 @@
         <v>8256</v>
       </c>
       <c r="B8256">
-        <v>10.98192865361407</v>
+        <v>10.98192865361406</v>
       </c>
     </row>
     <row r="8257" spans="1:2">
@@ -66487,7 +66487,7 @@
         <v>8268</v>
       </c>
       <c r="B8268">
-        <v>8.266772015936033</v>
+        <v>8.266772015936031</v>
       </c>
     </row>
     <row r="8269" spans="1:2">
@@ -66551,7 +66551,7 @@
         <v>8276</v>
       </c>
       <c r="B8276">
-        <v>8.959855715266247</v>
+        <v>8.959855715266245</v>
       </c>
     </row>
     <row r="8277" spans="1:2">
@@ -66687,7 +66687,7 @@
         <v>8293</v>
       </c>
       <c r="B8293">
-        <v>14.921799854754</v>
+        <v>14.92179985475399</v>
       </c>
     </row>
     <row r="8294" spans="1:2">
@@ -66855,7 +66855,7 @@
         <v>8314</v>
       </c>
       <c r="B8314">
-        <v>18.66332057692793</v>
+        <v>18.66332057692792</v>
       </c>
     </row>
     <row r="8315" spans="1:2">
@@ -66887,7 +66887,7 @@
         <v>8318</v>
       </c>
       <c r="B8318">
-        <v>15.72326122418118</v>
+        <v>15.72326122418117</v>
       </c>
     </row>
     <row r="8319" spans="1:2">
@@ -66999,7 +66999,7 @@
         <v>8332</v>
       </c>
       <c r="B8332">
-        <v>17.091609903691</v>
+        <v>17.09160990369099</v>
       </c>
     </row>
     <row r="8333" spans="1:2">
@@ -67071,7 +67071,7 @@
         <v>8341</v>
       </c>
       <c r="B8341">
-        <v>8.166776177544781</v>
+        <v>8.166776177544779</v>
       </c>
     </row>
     <row r="8342" spans="1:2">
@@ -67079,7 +67079,7 @@
         <v>8342</v>
       </c>
       <c r="B8342">
-        <v>5.465950713657287</v>
+        <v>5.465950713657286</v>
       </c>
     </row>
     <row r="8343" spans="1:2">
@@ -67143,7 +67143,7 @@
         <v>8350</v>
       </c>
       <c r="B8350">
-        <v>17.82645622603046</v>
+        <v>17.82645622603045</v>
       </c>
     </row>
     <row r="8351" spans="1:2">
@@ -67327,7 +67327,7 @@
         <v>8373</v>
       </c>
       <c r="B8373">
-        <v>19.09419361796784</v>
+        <v>19.09419361796783</v>
       </c>
     </row>
     <row r="8374" spans="1:2">
@@ -67335,7 +67335,7 @@
         <v>8374</v>
       </c>
       <c r="B8374">
-        <v>17.70157865645686</v>
+        <v>17.70157865645685</v>
       </c>
     </row>
     <row r="8375" spans="1:2">
@@ -67439,7 +67439,7 @@
         <v>8387</v>
       </c>
       <c r="B8387">
-        <v>15.29315016784179</v>
+        <v>15.29315016784178</v>
       </c>
     </row>
     <row r="8388" spans="1:2">
@@ -67479,7 +67479,7 @@
         <v>8392</v>
       </c>
       <c r="B8392">
-        <v>6.16413384906021</v>
+        <v>6.164133849060209</v>
       </c>
     </row>
     <row r="8393" spans="1:2">
@@ -67791,7 +67791,7 @@
         <v>8431</v>
       </c>
       <c r="B8431">
-        <v>47.45904478770228</v>
+        <v>47.45904478770227</v>
       </c>
     </row>
     <row r="8432" spans="1:2">
@@ -67855,7 +67855,7 @@
         <v>8439</v>
       </c>
       <c r="B8439">
-        <v>8.160592378629026</v>
+        <v>8.160592378629024</v>
       </c>
     </row>
     <row r="8440" spans="1:2">
@@ -67887,7 +67887,7 @@
         <v>8443</v>
       </c>
       <c r="B8443">
-        <v>3.744539353872143</v>
+        <v>3.744539353872142</v>
       </c>
     </row>
     <row r="8444" spans="1:2">
@@ -67943,7 +67943,7 @@
         <v>8450</v>
       </c>
       <c r="B8450">
-        <v>17.67631593292425</v>
+        <v>17.67631593292424</v>
       </c>
     </row>
     <row r="8451" spans="1:2">
@@ -68039,7 +68039,7 @@
         <v>8462</v>
       </c>
       <c r="B8462">
-        <v>4.797103989224365</v>
+        <v>4.797103989224364</v>
       </c>
     </row>
     <row r="8463" spans="1:2">
@@ -68095,7 +68095,7 @@
         <v>8469</v>
       </c>
       <c r="B8469">
-        <v>1.748274251188843</v>
+        <v>1.748274251188842</v>
       </c>
     </row>
     <row r="8470" spans="1:2">
@@ -68143,7 +68143,7 @@
         <v>8475</v>
       </c>
       <c r="B8475">
-        <v>9.303657350719872</v>
+        <v>9.30365735071987</v>
       </c>
     </row>
     <row r="8476" spans="1:2">
@@ -68199,7 +68199,7 @@
         <v>8482</v>
       </c>
       <c r="B8482">
-        <v>10.78343163912874</v>
+        <v>10.78343163912873</v>
       </c>
     </row>
     <row r="8483" spans="1:2">
@@ -68343,7 +68343,7 @@
         <v>8500</v>
       </c>
       <c r="B8500">
-        <v>9.974555572423425</v>
+        <v>9.974555572423419</v>
       </c>
     </row>
     <row r="8501" spans="1:2">
@@ -68431,7 +68431,7 @@
         <v>8511</v>
       </c>
       <c r="B8511">
-        <v>5.383070223923858</v>
+        <v>5.383070223923857</v>
       </c>
     </row>
     <row r="8512" spans="1:2">
@@ -68439,7 +68439,7 @@
         <v>8512</v>
       </c>
       <c r="B8512">
-        <v>7.756095731068638</v>
+        <v>7.756095731068637</v>
       </c>
     </row>
     <row r="8513" spans="1:2">
@@ -68527,7 +68527,7 @@
         <v>8523</v>
       </c>
       <c r="B8523">
-        <v>1.995007827927443</v>
+        <v>1.995007827927442</v>
       </c>
     </row>
     <row r="8524" spans="1:2">
@@ -68543,7 +68543,7 @@
         <v>8525</v>
       </c>
       <c r="B8525">
-        <v>0.8815635457140999</v>
+        <v>0.8815635457140998</v>
       </c>
     </row>
     <row r="8526" spans="1:2">
@@ -68575,7 +68575,7 @@
         <v>8529</v>
       </c>
       <c r="B8529">
-        <v>5.289140956032897</v>
+        <v>5.289140956032896</v>
       </c>
     </row>
     <row r="8530" spans="1:2">
@@ -68607,7 +68607,7 @@
         <v>8533</v>
       </c>
       <c r="B8533">
-        <v>9.845340551477635</v>
+        <v>9.845340551477634</v>
       </c>
     </row>
     <row r="8534" spans="1:2">
@@ -68727,7 +68727,7 @@
         <v>8548</v>
       </c>
       <c r="B8548">
-        <v>29.22357862011605</v>
+        <v>29.22357862011604</v>
       </c>
     </row>
     <row r="8549" spans="1:2">
@@ -68807,7 +68807,7 @@
         <v>8558</v>
       </c>
       <c r="B8558">
-        <v>26.11049012614364</v>
+        <v>26.11049012614363</v>
       </c>
     </row>
     <row r="8559" spans="1:2">
@@ -68855,7 +68855,7 @@
         <v>8564</v>
       </c>
       <c r="B8564">
-        <v>30.24375890569619</v>
+        <v>30.24375890569618</v>
       </c>
     </row>
     <row r="8565" spans="1:2">
@@ -68871,7 +68871,7 @@
         <v>8566</v>
       </c>
       <c r="B8566">
-        <v>30.58518666573666</v>
+        <v>30.58518666573665</v>
       </c>
     </row>
     <row r="8567" spans="1:2">
@@ -68991,7 +68991,7 @@
         <v>8581</v>
       </c>
       <c r="B8581">
-        <v>30.62475125595594</v>
+        <v>30.62475125595593</v>
       </c>
     </row>
     <row r="8582" spans="1:2">
@@ -69071,7 +69071,7 @@
         <v>8591</v>
       </c>
       <c r="B8591">
-        <v>25.88755098703396</v>
+        <v>25.88755098703395</v>
       </c>
     </row>
     <row r="8592" spans="1:2">
@@ -69423,7 +69423,7 @@
         <v>8635</v>
       </c>
       <c r="B8635">
-        <v>17.64296444872459</v>
+        <v>17.64296444872458</v>
       </c>
     </row>
     <row r="8636" spans="1:2">
@@ -69479,7 +69479,7 @@
         <v>8642</v>
       </c>
       <c r="B8642">
-        <v>29.91522627135683</v>
+        <v>29.91522627135682</v>
       </c>
     </row>
     <row r="8643" spans="1:2">
@@ -69671,7 +69671,7 @@
         <v>8666</v>
       </c>
       <c r="B8666">
-        <v>21.37030053262731</v>
+        <v>21.3703005326273</v>
       </c>
     </row>
     <row r="8667" spans="1:2">
@@ -69719,7 +69719,7 @@
         <v>8672</v>
       </c>
       <c r="B8672">
-        <v>33.39603099753762</v>
+        <v>33.39603099753761</v>
       </c>
     </row>
     <row r="8673" spans="1:2">
@@ -69975,7 +69975,7 @@
         <v>8704</v>
       </c>
       <c r="B8704">
-        <v>19.36311560304349</v>
+        <v>19.36311560304348</v>
       </c>
     </row>
     <row r="8705" spans="1:2">
@@ -70055,7 +70055,7 @@
         <v>8714</v>
       </c>
       <c r="B8714">
-        <v>21.80187694416001</v>
+        <v>21.80187694416</v>
       </c>
     </row>
     <row r="8715" spans="1:2">
@@ -70391,7 +70391,7 @@
         <v>8756</v>
       </c>
       <c r="B8756">
-        <v>26.86851836764121</v>
+        <v>26.8685183676412</v>
       </c>
     </row>
     <row r="8757" spans="1:2">
